--- a/examples/example-classroom_seating_plan.xlsx
+++ b/examples/example-classroom_seating_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7837C-F3F8-461F-9384-EF5697C4FA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4D097-5854-4448-A48C-EAA2AEBD2EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="4" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52552880-DF7C-412A-93D7-C0D5BD19AF8A}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2933,7 +2933,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3121,7 +3121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E963BB-7B77-4EE7-A630-9D93E0ADAB12}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/examples/example-classroom_seating_plan.xlsx
+++ b/examples/example-classroom_seating_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4D097-5854-4448-A48C-EAA2AEBD2EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7532A6A9-3880-4B7F-BECD-1EA5C5DC31E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="3" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
   <si>
     <t>District Cells</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>row_back_right</t>
+  </si>
+  <si>
+    <t>Disable  Drop Iteration Count</t>
   </si>
 </sst>
 </file>
@@ -823,7 +826,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,6 +857,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1445,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52552880-DF7C-412A-93D7-C0D5BD19AF8A}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2930,20 +2936,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAA5529-FA1A-443A-A960-BD004DE179D4}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="9" width="30.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>72</v>
       </c>
@@ -2955,163 +2964,177 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="10"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="10"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
